--- a/Product_New.xlsx
+++ b/Product_New.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -161,30 +161,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Product is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_8.TestCase_1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -268,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0">
-  <x:autoFilter ref="A1:J23"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0">
+  <x:autoFilter ref="A1:J14"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -574,7 +550,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J23"/>
+  <x:dimension ref="A1:J14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -898,200 +874,6 @@
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s"/>
-      <x:c r="F16" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s"/>
-      <x:c r="F17" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s"/>
-      <x:c r="F18" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s"/>
-      <x:c r="F19" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
-      <x:c r="F20" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s"/>
-      <x:c r="F22" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
-      <x:c r="C23" s="0" t="s"/>
-      <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s"/>
-      <x:c r="F23" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
